--- a/RMI/RMI/media/Reporte/Jorge_Andres_Coral_T__Febrero.xlsx
+++ b/RMI/RMI/media/Reporte/Jorge_Andres_Coral_T__Febrero.xlsx
@@ -211,14 +211,7 @@
     <t>PIENDAMO</t>
   </si>
   <si>
-    <t>17:00
-20:00</t>
-  </si>
-  <si>
     <t>TECNOLOGO ADSI</t>
-  </si>
-  <si>
-    <t>13:00 17:00</t>
   </si>
   <si>
     <t>POPAYÁN</t>
@@ -261,6 +254,13 @@
   </si>
   <si>
     <t>07:00 - 11:20</t>
+  </si>
+  <si>
+    <t>19:00
+22:00</t>
+  </si>
+  <si>
+    <t>13:00 19:00</t>
   </si>
 </sst>
 </file>
@@ -1797,47 +1797,17 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1847,119 +1817,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1969,10 +1835,40 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1981,11 +1877,84 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="28" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2005,15 +1974,101 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2032,121 +2087,66 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="28" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2530,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2555,34 +2555,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="94" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
       <c r="Y2" s="75"/>
       <c r="Z2" s="76"/>
       <c r="AA2" s="75"/>
@@ -2598,38 +2598,38 @@
       <c r="AK2" s="75"/>
     </row>
     <row r="3" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="115"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="167" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="168" t="s">
+      <c r="A3" s="194"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="198" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168" t="s">
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168" t="s">
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="168"/>
+      <c r="X3" s="199"/>
       <c r="Y3" s="75"/>
       <c r="Z3" s="75"/>
       <c r="AA3" s="76"/>
@@ -2645,36 +2645,36 @@
       <c r="AK3" s="75"/>
     </row>
     <row r="4" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="169" t="s">
+      <c r="A4" s="194"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="170" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="172"/>
-      <c r="W4" s="97" t="s">
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="98"/>
+      <c r="X4" s="205"/>
       <c r="Y4" s="75"/>
       <c r="Z4" s="75"/>
       <c r="AA4" s="76"/>
@@ -2690,36 +2690,36 @@
       <c r="AK4" s="75"/>
     </row>
     <row r="5" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="115"/>
-      <c r="B5" s="166" t="s">
+      <c r="A5" s="194"/>
+      <c r="B5" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="168" t="s">
+      <c r="C5" s="210"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="173" t="s">
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="100"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="207"/>
       <c r="Y5" s="75"/>
       <c r="Z5" s="75"/>
       <c r="AA5" s="76"/>
@@ -2735,34 +2735,34 @@
       <c r="AK5" s="75"/>
     </row>
     <row r="6" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="169">
+      <c r="A6" s="194"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="200">
         <v>13069292</v>
       </c>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="169">
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200">
         <v>3112249419</v>
       </c>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="102"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="208"/>
+      <c r="X6" s="209"/>
       <c r="Y6" s="75"/>
       <c r="Z6" s="75"/>
       <c r="AA6" s="76"/>
@@ -2778,30 +2778,30 @@
       <c r="AK6" s="75"/>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="108"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="214"/>
       <c r="Y7" s="75"/>
       <c r="Z7" s="75"/>
       <c r="AA7" s="75"/>
@@ -2831,15 +2831,15 @@
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
       <c r="N8" s="60"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="216"/>
+      <c r="U8" s="216"/>
+      <c r="V8" s="216"/>
+      <c r="W8" s="216"/>
       <c r="X8" s="60"/>
       <c r="Y8" s="75"/>
       <c r="Z8" s="75"/>
@@ -2856,32 +2856,32 @@
       <c r="AK8" s="75"/>
     </row>
     <row r="9" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="111"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="218"/>
+      <c r="R9" s="218"/>
+      <c r="S9" s="218"/>
+      <c r="T9" s="218"/>
+      <c r="U9" s="218"/>
+      <c r="V9" s="218"/>
+      <c r="W9" s="218"/>
+      <c r="X9" s="219"/>
       <c r="Y9" s="75"/>
       <c r="Z9" s="75"/>
       <c r="AA9" s="75"/>
@@ -2897,56 +2897,56 @@
       <c r="AK9" s="75"/>
     </row>
     <row r="10" spans="1:37" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="116" t="s">
+      <c r="G10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="147" t="s">
+      <c r="O10" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="145" t="s">
+      <c r="P10" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="145" t="s">
+      <c r="Q10" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="116" t="s">
+      <c r="R10" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="132"/>
+      <c r="S10" s="175" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="159"/>
+      <c r="U10" s="159"/>
+      <c r="V10" s="159"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="176"/>
       <c r="Y10" s="75"/>
       <c r="Z10" s="75"/>
       <c r="AA10" s="75"/>
@@ -2962,13 +2962,13 @@
       <c r="AK10" s="75"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
       <c r="H11" s="30" t="s">
         <v>12</v>
       </c>
@@ -2990,16 +2990,16 @@
       <c r="N11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="117"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="135"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="224"/>
+      <c r="Q11" s="225"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="179"/>
       <c r="Y11" s="75"/>
       <c r="Z11" s="75"/>
       <c r="AA11" s="75"/>
@@ -3066,48 +3066,48 @@
       <c r="AK12" s="75"/>
     </row>
     <row r="13" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88">
+      <c r="A13" s="166">
         <v>1320974</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="189" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="103">
+      <c r="C13" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="93">
         <v>54</v>
       </c>
       <c r="E13" s="182" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="185"/>
-      <c r="H13" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="185" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="190"/>
+      <c r="H13" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91" t="s">
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="91" t="s">
+      <c r="L13" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="90" t="s">
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="103">
+      <c r="P13" s="93">
         <v>0</v>
       </c>
-      <c r="Q13" s="103">
+      <c r="Q13" s="93">
         <v>54</v>
       </c>
-      <c r="R13" s="103"/>
+      <c r="R13" s="93"/>
       <c r="S13" s="18"/>
       <c r="T13" s="19"/>
       <c r="U13" s="62">
@@ -3138,23 +3138,23 @@
     </row>
     <row r="14" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="180"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="174"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="183"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="178"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="174"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
       <c r="S14" s="56">
         <v>6</v>
       </c>
@@ -3189,23 +3189,23 @@
     </row>
     <row r="15" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="180"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="174"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="183"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
       <c r="S15" s="45">
         <v>13</v>
       </c>
@@ -3240,25 +3240,25 @@
     </row>
     <row r="16" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="180"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="174"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="183"/>
-      <c r="F16" s="193" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="186"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
+      <c r="F16" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="191"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
       <c r="S16" s="32">
         <v>20</v>
       </c>
@@ -3293,23 +3293,23 @@
     </row>
     <row r="17" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="181"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="175"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="184"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
       <c r="S17" s="34">
         <v>27</v>
       </c>
@@ -3335,44 +3335,44 @@
       <c r="AK17" s="78"/>
     </row>
     <row r="18" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88">
+      <c r="A18" s="166">
         <v>1320978</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="189" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="103">
+      <c r="C18" s="170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="93">
         <v>9</v>
       </c>
-      <c r="E18" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="195" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="90" t="s">
+      <c r="E18" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="144"/>
+      <c r="H18" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="103">
+      <c r="P18" s="93">
         <v>0</v>
       </c>
-      <c r="Q18" s="103">
+      <c r="Q18" s="93">
         <v>9</v>
       </c>
-      <c r="R18" s="103"/>
+      <c r="R18" s="93"/>
       <c r="S18" s="18"/>
       <c r="T18" s="68"/>
       <c r="U18" s="62">
@@ -3402,24 +3402,24 @@
       <c r="AK18" s="78"/>
     </row>
     <row r="19" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="176"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="174"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="174"/>
+      <c r="A19" s="167"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
       <c r="S19" s="56">
         <v>6</v>
       </c>
@@ -3453,24 +3453,24 @@
       <c r="AK19" s="78"/>
     </row>
     <row r="20" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="176"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="174"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
       <c r="S20" s="45">
         <v>13</v>
       </c>
@@ -3504,26 +3504,26 @@
       <c r="AK20" s="78"/>
     </row>
     <row r="21" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="176"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="198" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
       <c r="S21" s="32">
         <v>20</v>
       </c>
@@ -3557,24 +3557,24 @@
       <c r="AK21" s="78"/>
     </row>
     <row r="22" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="177"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
+      <c r="A22" s="168"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
       <c r="S22" s="34">
         <v>27</v>
       </c>
@@ -3600,46 +3600,46 @@
       <c r="AK22" s="78"/>
     </row>
     <row r="23" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="88">
+      <c r="A23" s="166">
         <v>1355477</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="170" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="93">
+        <v>36</v>
+      </c>
+      <c r="E23" s="169" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="144"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="189" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="103">
+      <c r="P23" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="93">
         <v>36</v>
       </c>
-      <c r="E23" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="195" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="103">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="103">
-        <v>36</v>
-      </c>
-      <c r="R23" s="103"/>
+      <c r="R23" s="93"/>
       <c r="S23" s="18"/>
       <c r="T23" s="68"/>
       <c r="U23" s="62">
@@ -3669,24 +3669,24 @@
       <c r="AK23" s="78"/>
     </row>
     <row r="24" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="176"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
+      <c r="A24" s="167"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
       <c r="S24" s="56">
         <v>6</v>
       </c>
@@ -3720,24 +3720,24 @@
       <c r="AK24" s="78"/>
     </row>
     <row r="25" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
+      <c r="A25" s="167"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
       <c r="S25" s="56">
         <v>13</v>
       </c>
@@ -3771,24 +3771,24 @@
       <c r="AK25" s="78"/>
     </row>
     <row r="26" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
+      <c r="A26" s="167"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
       <c r="S26" s="56">
         <v>20</v>
       </c>
@@ -3822,24 +3822,24 @@
       <c r="AK26" s="78"/>
     </row>
     <row r="27" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="177"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
-      <c r="O27" s="179"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
       <c r="S27" s="66">
         <v>27</v>
       </c>
@@ -3865,16 +3865,16 @@
       <c r="AK27" s="78"/>
     </row>
     <row r="28" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88">
+      <c r="A28" s="166">
         <v>1320974</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="103">
+      <c r="D28" s="93">
         <v>18</v>
       </c>
       <c r="E28" s="182" t="s">
@@ -3883,30 +3883,30 @@
       <c r="F28" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="185"/>
-      <c r="H28" s="91" t="s">
+      <c r="G28" s="190"/>
+      <c r="H28" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91" t="s">
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="91" t="s">
+      <c r="L28" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="90" t="s">
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="P28" s="103">
+      <c r="P28" s="93">
         <v>0</v>
       </c>
-      <c r="Q28" s="103">
+      <c r="Q28" s="93">
         <v>18</v>
       </c>
-      <c r="R28" s="103"/>
+      <c r="R28" s="93"/>
       <c r="S28" s="18"/>
       <c r="T28" s="68"/>
       <c r="U28" s="62">
@@ -3937,25 +3937,25 @@
     </row>
     <row r="29" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="180"/>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="174"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="183"/>
       <c r="F29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="186"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="174"/>
-      <c r="R29" s="174"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
       <c r="S29" s="58">
         <v>6</v>
       </c>
@@ -3990,25 +3990,25 @@
     </row>
     <row r="30" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="180"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="174"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="99"/>
       <c r="E30" s="183"/>
       <c r="F30" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="186"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
       <c r="S30" s="56">
         <v>13</v>
       </c>
@@ -4043,25 +4043,25 @@
     </row>
     <row r="31" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="180"/>
-      <c r="B31" s="178"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="174"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="183"/>
       <c r="F31" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="186"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="178"/>
-      <c r="O31" s="178"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
       <c r="S31" s="56">
         <v>20</v>
       </c>
@@ -4096,25 +4096,25 @@
     </row>
     <row r="32" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="181"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="175"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="100"/>
       <c r="E32" s="184"/>
       <c r="F32" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="187"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
       <c r="S32" s="66">
         <v>27</v>
       </c>
@@ -4140,44 +4140,44 @@
       <c r="AK32" s="78"/>
     </row>
     <row r="33" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88">
+      <c r="A33" s="166">
         <v>1320978</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="103">
+      <c r="D33" s="93">
         <v>3</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="169" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="90" t="s">
+      <c r="G33" s="144"/>
+      <c r="H33" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="P33" s="103">
+      <c r="P33" s="93">
         <v>0</v>
       </c>
-      <c r="Q33" s="103">
+      <c r="Q33" s="93">
         <v>3</v>
       </c>
-      <c r="R33" s="103"/>
+      <c r="R33" s="93"/>
       <c r="S33" s="18"/>
       <c r="T33" s="68"/>
       <c r="U33" s="62">
@@ -4207,26 +4207,26 @@
       <c r="AK33" s="78"/>
     </row>
     <row r="34" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="176"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="178"/>
+      <c r="A34" s="167"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="142"/>
       <c r="F34" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="174"/>
-      <c r="R34" s="174"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
       <c r="S34" s="58">
         <v>6</v>
       </c>
@@ -4260,26 +4260,26 @@
       <c r="AK34" s="78"/>
     </row>
     <row r="35" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="176"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="178"/>
+      <c r="A35" s="167"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="142"/>
       <c r="F35" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="178"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="178"/>
-      <c r="O35" s="178"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="174"/>
-      <c r="R35" s="174"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
       <c r="S35" s="56">
         <v>13</v>
       </c>
@@ -4313,26 +4313,26 @@
       <c r="AK35" s="78"/>
     </row>
     <row r="36" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="178"/>
+      <c r="A36" s="167"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="142"/>
       <c r="F36" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="142"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
       <c r="S36" s="56">
         <v>20</v>
       </c>
@@ -4366,26 +4366,26 @@
       <c r="AK36" s="78"/>
     </row>
     <row r="37" spans="1:48" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="179"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="143"/>
       <c r="F37" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="175"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
       <c r="S37" s="66">
         <v>27</v>
       </c>
@@ -4411,46 +4411,46 @@
       <c r="AK37" s="78"/>
     </row>
     <row r="38" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="88">
+      <c r="A38" s="166">
         <v>1355477</v>
       </c>
-      <c r="B38" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="89" t="s">
+      <c r="B38" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="103">
+      <c r="D38" s="93">
         <v>12</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="169" t="s">
         <v>53</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="P38" s="103">
+      <c r="G38" s="144"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="141"/>
+      <c r="L38" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" s="141"/>
+      <c r="N38" s="141"/>
+      <c r="O38" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="93">
         <v>0</v>
       </c>
-      <c r="Q38" s="103">
+      <c r="Q38" s="93">
         <v>12</v>
       </c>
-      <c r="R38" s="103"/>
+      <c r="R38" s="93"/>
       <c r="S38" s="18"/>
       <c r="T38" s="68"/>
       <c r="U38" s="72">
@@ -4480,26 +4480,26 @@
       <c r="AK38" s="78"/>
     </row>
     <row r="39" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="178"/>
-      <c r="C39" s="178"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="178"/>
+      <c r="A39" s="167"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="142"/>
       <c r="F39" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="178"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="178"/>
-      <c r="L39" s="178"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="178"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="142"/>
+      <c r="O39" s="142"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="99"/>
       <c r="S39" s="56">
         <v>6</v>
       </c>
@@ -4533,26 +4533,26 @@
       <c r="AK39" s="78"/>
     </row>
     <row r="40" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="176"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="178"/>
+      <c r="A40" s="167"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="142"/>
       <c r="F40" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="178"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="178"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="142"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
       <c r="S40" s="56">
         <v>13</v>
       </c>
@@ -4586,26 +4586,26 @@
       <c r="AK40" s="78"/>
     </row>
     <row r="41" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="176"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="178"/>
+      <c r="A41" s="167"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="142"/>
       <c r="F41" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="178"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="178"/>
-      <c r="K41" s="178"/>
-      <c r="L41" s="178"/>
-      <c r="M41" s="178"/>
-      <c r="N41" s="178"/>
-      <c r="O41" s="178"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="142"/>
+      <c r="L41" s="142"/>
+      <c r="M41" s="142"/>
+      <c r="N41" s="142"/>
+      <c r="O41" s="142"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
+      <c r="R41" s="99"/>
       <c r="S41" s="56">
         <v>20</v>
       </c>
@@ -4639,26 +4639,26 @@
       <c r="AK41" s="78"/>
     </row>
     <row r="42" spans="1:48" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="177"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="179"/>
+      <c r="A42" s="168"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="143"/>
       <c r="F42" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="179"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="179"/>
-      <c r="L42" s="179"/>
-      <c r="M42" s="179"/>
-      <c r="N42" s="179"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="175"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
       <c r="S42" s="66">
         <v>27</v>
       </c>
@@ -4691,25 +4691,25 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
       <c r="G43" s="55"/>
-      <c r="H43" s="209"/>
-      <c r="I43" s="201"/>
-      <c r="J43" s="201"/>
-      <c r="K43" s="201"/>
-      <c r="L43" s="201"/>
-      <c r="M43" s="201"/>
-      <c r="N43" s="201"/>
-      <c r="O43" s="210"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="140"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="46">
         <f>SUM(Q13:Q42)</f>
         <v>132</v>
       </c>
-      <c r="R43" s="200"/>
-      <c r="S43" s="201"/>
-      <c r="T43" s="201"/>
-      <c r="U43" s="201"/>
-      <c r="V43" s="201"/>
-      <c r="W43" s="201"/>
+      <c r="R43" s="147"/>
+      <c r="S43" s="139"/>
+      <c r="T43" s="139"/>
+      <c r="U43" s="139"/>
+      <c r="V43" s="139"/>
+      <c r="W43" s="139"/>
       <c r="X43" s="17"/>
       <c r="Y43" s="79"/>
       <c r="Z43" s="79"/>
@@ -4726,31 +4726,31 @@
       <c r="AK43" s="80"/>
     </row>
     <row r="44" spans="1:48" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="203"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="203"/>
-      <c r="H44" s="203"/>
-      <c r="I44" s="203"/>
-      <c r="J44" s="203"/>
-      <c r="K44" s="203"/>
-      <c r="L44" s="203"/>
-      <c r="M44" s="203"/>
-      <c r="N44" s="203"/>
-      <c r="O44" s="203"/>
-      <c r="P44" s="203"/>
-      <c r="Q44" s="204"/>
-      <c r="R44" s="203"/>
-      <c r="S44" s="203"/>
-      <c r="T44" s="203"/>
-      <c r="U44" s="203"/>
-      <c r="V44" s="203"/>
-      <c r="W44" s="203"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
+      <c r="J44" s="149"/>
+      <c r="K44" s="149"/>
+      <c r="L44" s="149"/>
+      <c r="M44" s="149"/>
+      <c r="N44" s="149"/>
+      <c r="O44" s="149"/>
+      <c r="P44" s="149"/>
+      <c r="Q44" s="150"/>
+      <c r="R44" s="149"/>
+      <c r="S44" s="149"/>
+      <c r="T44" s="149"/>
+      <c r="U44" s="149"/>
+      <c r="V44" s="149"/>
+      <c r="W44" s="149"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="79"/>
       <c r="Z44" s="79"/>
@@ -4767,48 +4767,48 @@
       <c r="AK44" s="80"/>
     </row>
     <row r="45" spans="1:48" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="160"/>
-      <c r="E45" s="120" t="s">
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="116" t="s">
+      <c r="F45" s="153"/>
+      <c r="G45" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="120" t="s">
+      <c r="H45" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="159"/>
+      <c r="K45" s="159"/>
+      <c r="L45" s="159"/>
+      <c r="M45" s="159"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="147" t="s">
+      <c r="O45" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="P45" s="145" t="s">
+      <c r="P45" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="145" t="s">
+      <c r="Q45" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="R45" s="116" t="s">
+      <c r="R45" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="S45" s="120" t="s">
+      <c r="S45" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="T45" s="121"/>
-      <c r="U45" s="121"/>
-      <c r="V45" s="121"/>
-      <c r="W45" s="121"/>
-      <c r="X45" s="121"/>
+      <c r="T45" s="159"/>
+      <c r="U45" s="159"/>
+      <c r="V45" s="159"/>
+      <c r="W45" s="159"/>
+      <c r="X45" s="159"/>
       <c r="Y45" s="75"/>
       <c r="Z45" s="75"/>
       <c r="AA45" s="75"/>
@@ -4824,13 +4824,13 @@
       <c r="AK45" s="75"/>
     </row>
     <row r="46" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="161"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="205"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="97"/>
       <c r="H46" s="29" t="s">
         <v>12</v>
       </c>
@@ -4852,10 +4852,10 @@
       <c r="N46" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="O46" s="205"/>
-      <c r="P46" s="206"/>
-      <c r="Q46" s="207"/>
-      <c r="R46" s="205"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="162"/>
+      <c r="Q46" s="163"/>
+      <c r="R46" s="97"/>
       <c r="S46" s="29" t="s">
         <v>12</v>
       </c>
@@ -4889,45 +4889,45 @@
       <c r="AK46" s="75"/>
     </row>
     <row r="47" spans="1:48" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="128"/>
+      <c r="G47" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="154"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="136" t="s">
+      <c r="I47" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="137"/>
-      <c r="G47" s="142" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="128" t="s">
-        <v>76</v>
-      </c>
-      <c r="K47" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="L47" s="128"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="128"/>
-      <c r="O47" s="122" t="s">
+      <c r="K47" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="P47" s="125">
+      <c r="P47" s="88">
         <v>42767</v>
       </c>
-      <c r="Q47" s="125">
+      <c r="Q47" s="88">
         <v>42794</v>
       </c>
-      <c r="R47" s="103">
-        <v>48</v>
+      <c r="R47" s="93">
+        <v>42</v>
       </c>
       <c r="S47" s="62"/>
       <c r="T47" s="68"/>
@@ -4969,24 +4969,24 @@
       <c r="AV47" s="84"/>
     </row>
     <row r="48" spans="1:48" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="138"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="123"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="211"/>
-      <c r="R48" s="104"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="133"/>
+      <c r="O48" s="145"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="91"/>
+      <c r="R48" s="94"/>
       <c r="S48" s="58">
         <v>6</v>
       </c>
@@ -5031,24 +5031,24 @@
       <c r="AV48" s="84"/>
     </row>
     <row r="49" spans="1:48" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="138"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="123"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="211"/>
-      <c r="R49" s="104"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="145"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="91"/>
+      <c r="R49" s="94"/>
       <c r="S49" s="58">
         <v>13</v>
       </c>
@@ -5093,24 +5093,24 @@
       <c r="AV49" s="84"/>
     </row>
     <row r="50" spans="1:48" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="138"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="123"/>
-      <c r="P50" s="126"/>
-      <c r="Q50" s="211"/>
-      <c r="R50" s="104"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="94"/>
       <c r="S50" s="58">
         <v>20</v>
       </c>
@@ -5155,24 +5155,24 @@
       <c r="AV50" s="84"/>
     </row>
     <row r="51" spans="1:48" s="36" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="140"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="130"/>
-      <c r="N51" s="130"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="212"/>
-      <c r="R51" s="105"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
+      <c r="N51" s="134"/>
+      <c r="O51" s="146"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="92"/>
+      <c r="R51" s="95"/>
       <c r="S51" s="87">
         <v>27</v>
       </c>
@@ -5209,24 +5209,24 @@
       <c r="AV51" s="84"/>
     </row>
     <row r="52" spans="1:48" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="217"/>
-      <c r="B52" s="218"/>
-      <c r="C52" s="218"/>
-      <c r="D52" s="218"/>
-      <c r="E52" s="217"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="223"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="122"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="213"/>
-      <c r="R52" s="103"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="93"/>
       <c r="S52" s="41"/>
       <c r="T52" s="42"/>
       <c r="U52" s="42"/>
@@ -5252,24 +5252,24 @@
       <c r="AO52" s="84"/>
     </row>
     <row r="53" spans="1:48" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="218"/>
-      <c r="B53" s="219"/>
-      <c r="C53" s="219"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="218"/>
-      <c r="F53" s="220"/>
-      <c r="G53" s="221"/>
-      <c r="H53" s="224"/>
-      <c r="I53" s="215"/>
-      <c r="J53" s="215"/>
-      <c r="K53" s="215"/>
-      <c r="L53" s="215"/>
-      <c r="M53" s="215"/>
-      <c r="N53" s="215"/>
-      <c r="O53" s="215"/>
-      <c r="P53" s="215"/>
-      <c r="Q53" s="174"/>
-      <c r="R53" s="174"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="99"/>
       <c r="S53" s="38"/>
       <c r="T53" s="39"/>
       <c r="U53" s="39"/>
@@ -5295,24 +5295,24 @@
       <c r="AO53" s="84"/>
     </row>
     <row r="54" spans="1:48" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="218"/>
-      <c r="B54" s="219"/>
-      <c r="C54" s="219"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="220"/>
-      <c r="G54" s="221"/>
-      <c r="H54" s="224"/>
-      <c r="I54" s="215"/>
-      <c r="J54" s="215"/>
-      <c r="K54" s="215"/>
-      <c r="L54" s="215"/>
-      <c r="M54" s="215"/>
-      <c r="N54" s="215"/>
-      <c r="O54" s="215"/>
-      <c r="P54" s="215"/>
-      <c r="Q54" s="174"/>
-      <c r="R54" s="174"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="99"/>
+      <c r="R54" s="99"/>
       <c r="S54" s="38"/>
       <c r="T54" s="39"/>
       <c r="U54" s="39"/>
@@ -5338,24 +5338,24 @@
       <c r="AO54" s="84"/>
     </row>
     <row r="55" spans="1:48" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="218"/>
-      <c r="B55" s="219"/>
-      <c r="C55" s="219"/>
-      <c r="D55" s="218"/>
-      <c r="E55" s="218"/>
-      <c r="F55" s="220"/>
-      <c r="G55" s="221"/>
-      <c r="H55" s="224"/>
-      <c r="I55" s="215"/>
-      <c r="J55" s="215"/>
-      <c r="K55" s="215"/>
-      <c r="L55" s="215"/>
-      <c r="M55" s="215"/>
-      <c r="N55" s="215"/>
-      <c r="O55" s="215"/>
-      <c r="P55" s="215"/>
-      <c r="Q55" s="174"/>
-      <c r="R55" s="174"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="99"/>
       <c r="S55" s="22"/>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
@@ -5381,24 +5381,24 @@
       <c r="AO55" s="84"/>
     </row>
     <row r="56" spans="1:48" s="36" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="218"/>
-      <c r="B56" s="218"/>
-      <c r="C56" s="218"/>
-      <c r="D56" s="218"/>
-      <c r="E56" s="218"/>
-      <c r="F56" s="220"/>
-      <c r="G56" s="222"/>
-      <c r="H56" s="225"/>
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
-      <c r="M56" s="216"/>
-      <c r="N56" s="216"/>
-      <c r="O56" s="216"/>
-      <c r="P56" s="216"/>
-      <c r="Q56" s="175"/>
-      <c r="R56" s="175"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="107"/>
+      <c r="N56" s="107"/>
+      <c r="O56" s="107"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
       <c r="S56" s="24"/>
       <c r="T56" s="25"/>
       <c r="U56" s="26"/>
@@ -5424,28 +5424,28 @@
       <c r="AO56" s="84"/>
     </row>
     <row r="57" spans="1:48" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="149"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="149"/>
-      <c r="E57" s="149"/>
-      <c r="F57" s="149"/>
-      <c r="G57" s="149"/>
-      <c r="H57" s="150" t="s">
+      <c r="A57" s="101"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="151"/>
-      <c r="J57" s="151"/>
-      <c r="K57" s="151"/>
-      <c r="L57" s="151"/>
-      <c r="M57" s="151"/>
-      <c r="N57" s="151"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="214"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="103"/>
+      <c r="N57" s="103"/>
+      <c r="O57" s="103"/>
+      <c r="P57" s="104"/>
       <c r="Q57" s="28"/>
       <c r="R57" s="28">
         <f>SUM(R47:R56)</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S57" s="47"/>
       <c r="T57" s="47"/>
@@ -27526,6 +27526,162 @@
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="P38:P42"/>
+    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="P28:P32"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="R28:R32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="K33:K37"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="O33:O37"/>
+    <mergeCell ref="P33:P37"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="R33:R37"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="H28:H32"/>
+    <mergeCell ref="I28:I32"/>
+    <mergeCell ref="J28:J32"/>
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="A9:X9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="D3:F7"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="W4:X6"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:X11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="N13:N17"/>
+    <mergeCell ref="O13:O17"/>
+    <mergeCell ref="P13:P17"/>
+    <mergeCell ref="Q13:Q17"/>
+    <mergeCell ref="R13:R17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="N18:N22"/>
+    <mergeCell ref="O18:O22"/>
+    <mergeCell ref="P18:P22"/>
+    <mergeCell ref="Q18:Q22"/>
+    <mergeCell ref="R18:R22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="K18:K22"/>
+    <mergeCell ref="L18:L22"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="P23:P27"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="R23:R27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="A44:W44"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="N47:N51"/>
+    <mergeCell ref="O47:O51"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="L28:L32"/>
+    <mergeCell ref="M28:M32"/>
+    <mergeCell ref="N28:N32"/>
+    <mergeCell ref="O28:O32"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="O38:O42"/>
     <mergeCell ref="P47:P51"/>
     <mergeCell ref="Q47:Q51"/>
     <mergeCell ref="R47:R51"/>
@@ -27550,162 +27706,6 @@
     <mergeCell ref="E47:F51"/>
     <mergeCell ref="G47:G51"/>
     <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="N23:N27"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="M47:M51"/>
-    <mergeCell ref="N47:N51"/>
-    <mergeCell ref="O47:O51"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="L28:L32"/>
-    <mergeCell ref="M28:M32"/>
-    <mergeCell ref="N28:N32"/>
-    <mergeCell ref="O28:O32"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="M38:M42"/>
-    <mergeCell ref="N38:N42"/>
-    <mergeCell ref="O38:O42"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="A44:W44"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="P23:P27"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="R23:R27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="N18:N22"/>
-    <mergeCell ref="O18:O22"/>
-    <mergeCell ref="P18:P22"/>
-    <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="R18:R22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="J18:J22"/>
-    <mergeCell ref="K18:K22"/>
-    <mergeCell ref="L18:L22"/>
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:X11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="M13:M17"/>
-    <mergeCell ref="N13:N17"/>
-    <mergeCell ref="O13:O17"/>
-    <mergeCell ref="P13:P17"/>
-    <mergeCell ref="Q13:Q17"/>
-    <mergeCell ref="R13:R17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:X2"/>
-    <mergeCell ref="D3:F7"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:V4"/>
-    <mergeCell ref="W4:X6"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="H28:H32"/>
-    <mergeCell ref="I28:I32"/>
-    <mergeCell ref="J28:J32"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="A9:X9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="P28:P32"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="R28:R32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="I33:I37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="K33:K37"/>
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="M33:M37"/>
-    <mergeCell ref="N33:N37"/>
-    <mergeCell ref="O33:O37"/>
-    <mergeCell ref="P33:P37"/>
-    <mergeCell ref="Q33:Q37"/>
-    <mergeCell ref="R33:R37"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="P38:P42"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="R38:R42"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O47:O51">
